--- a/src/test/resources/ExcelTestData.xlsx
+++ b/src/test/resources/ExcelTestData.xlsx
@@ -24,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
-  <si>
-    <t>Test Case Name</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>username</t>
   </si>
@@ -50,10 +47,28 @@
     <t>nhidinh1</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>UDRhc3N3MHJkMSE=</t>
+  </si>
+  <si>
+    <t>testcasename</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>failed</t>
+  </si>
+  <si>
+    <t>Empty username</t>
+  </si>
+  <si>
+    <t>Empty password</t>
+  </si>
+  <si>
+    <t>nhi</t>
   </si>
 </sst>
 </file>
@@ -406,10 +421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -419,48 +434,73 @@
     <col min="3" max="3" width="19.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
       </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
-      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
